--- a/STUDENT.xlsx
+++ b/STUDENT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amey Bobade\Desktop\RPA SCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8F358-5182-4FAC-A5F0-EBA361F46A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEE683F-C2EA-4E76-B575-4C2C03A5E837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{37B09EE5-D382-48AF-B5F5-5ADB370627A6}"/>
+    <workbookView xWindow="1704" yWindow="816" windowWidth="11112" windowHeight="9420" xr2:uid="{37B09EE5-D382-48AF-B5F5-5ADB370627A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>ameybobade@gmail.com</t>
   </si>
   <si>
-    <t>amey.21810866@viit.ac.in</t>
-  </si>
-  <si>
     <t>aadarsh7.as@gmail.com</t>
   </si>
   <si>
     <t>aadarsh.21810861@viit.ac.in</t>
+  </si>
+  <si>
+    <t>ameybobade1103@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
         <v>21810825</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>2189119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -569,12 +569,11 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="b">
-        <f>AND(D4=TRUE,E4=F9,F4="True")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -582,7 +581,7 @@
         <v>5165151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
